--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2776.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2776.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167231042821958</v>
+        <v>1.401845812797546</v>
       </c>
       <c r="B1">
-        <v>2.427968528588604</v>
+        <v>1.841027736663818</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.895308494567871</v>
       </c>
       <c r="D1">
-        <v>2.370837684446266</v>
+        <v>4.753347396850586</v>
       </c>
       <c r="E1">
-        <v>1.23158666518341</v>
+        <v>1.044169306755066</v>
       </c>
     </row>
   </sheetData>
